--- a/Output/แผนการปฎิบัติงาน (QTY).xlsx
+++ b/Output/แผนการปฎิบัติงาน (QTY).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Mango\PM\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45BAE10D-49F4-47DB-A7C7-2C7F11B87169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68B2DDF-69E8-4D0F-8C46-DA4C188AAC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBBDF307-F1F4-46AE-A029-6F963567ADD9}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{8F3A25FE-63D5-45A8-ADF9-6F2E0E7254C7}"/>
   </bookViews>
   <sheets>
     <sheet name="แผนการปฎิบัติงาน (QTY)" sheetId="2" r:id="rId1"/>
@@ -856,7 +856,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
-    <cellStyle name="ปกติ 2" xfId="1" xr:uid="{B5311490-81E8-4E1D-8734-55DB2E8DF4E7}"/>
+    <cellStyle name="ปกติ 2" xfId="1" xr:uid="{726B6C33-6251-41B6-BD93-0213CEB05B1D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1167,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4AB6F4-E09D-4FDF-BAE2-078345420045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC7F5DC-1C0E-4A61-A251-0CF0BA912B1C}">
   <dimension ref="A1:DB55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
